--- a/use/IntelliJIDEA_ReferenceCard.xlsx
+++ b/use/IntelliJIDEA_ReferenceCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="418">
   <si>
     <t>Remember these Shortcuts</t>
   </si>
@@ -1039,10 +1039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Editing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>步入/进入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1143,10 +1139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成代码…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>覆盖方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,10 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>环绕…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注释/取消注释行注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1203,10 +1191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从最近的缓冲区粘贴…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复制当前行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1463,27 +1447,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将项目提交到VCS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从VCS更新项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>推送提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VCS'快速弹出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用实时模板环绕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插入实时模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift + F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl +mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntelliJ IDEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT KEYMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCS 快速弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从 VCS 更新项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将项目提交到 VCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从最近的缓冲区粘贴 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成代码 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找 / 替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">导航 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制系统/本地记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译 运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1559,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1548,13 +1616,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1569,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1580,24 +1663,64 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE6E6E6"/>
+      <color rgb="FFE9E8E7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1874,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:B34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1892,26 +2015,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1932,10 +2055,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
@@ -1976,10 +2099,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2088,10 +2211,10 @@
       <c r="F9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2228,16 +2351,16 @@
       <c r="F15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
@@ -2398,10 +2521,10 @@
       <c r="F22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -2494,10 +2617,10 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2658,14 +2781,14 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="10"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2791,10 +2914,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
         <v>91</v>
       </c>
@@ -2958,1086 +3081,1205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="40.625" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="40.625" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="7" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="40.625" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="1"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="H3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="M10" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    </row>
+    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="E15" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="M15" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="M16" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="E26" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="E35" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="E36" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="L36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="L37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="L38" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="L39" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="L40" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="L41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="F42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="L42" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="F43" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="F44" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+    </row>
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" s="3"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" s="3"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" s="3"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L24:M25"/>
+    <mergeCell ref="L29:M30"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions headings="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/use/IntelliJIDEA_ReferenceCard.xlsx
+++ b/use/IntelliJIDEA_ReferenceCard.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="419">
   <si>
     <t>Remember these Shortcuts</t>
   </si>
@@ -1355,10 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转到 super-method / super-class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>转到 上/下 一个方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,10 +1379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下/上 一个突出显示的错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑源/查看源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1552,6 +1544,18 @@
   </si>
   <si>
     <t>重构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2 / Shift + F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下/上 一个高亮错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转到 超方法/ 超类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1681,6 +1685,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1693,12 +1698,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1708,7 +1707,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2015,26 +2019,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="10"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
@@ -2055,10 +2059,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
@@ -2099,10 +2103,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
@@ -2211,10 +2215,10 @@
       <c r="F9" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2351,16 +2355,16 @@
       <c r="F15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
@@ -2521,10 +2525,10 @@
       <c r="F22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -2617,10 +2621,10 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
@@ -2781,14 +2785,14 @@
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="11"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2914,10 +2918,10 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="2" t="s">
         <v>91</v>
       </c>
@@ -3083,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3106,63 +3110,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="16"/>
+      <c r="B1" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1"/>
       <c r="H2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="C3" s="18"/>
+      <c r="B3" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="17"/>
       <c r="D3" s="4"/>
       <c r="H3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="E4" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -3176,7 +3180,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3"/>
@@ -3188,7 +3192,7 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>266</v>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>267</v>
@@ -3236,7 +3240,7 @@
         <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="3"/>
@@ -3248,7 +3252,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>268</v>
@@ -3266,7 +3270,7 @@
         <v>309</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="3"/>
@@ -3278,7 +3282,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>269</v>
@@ -3296,7 +3300,7 @@
         <v>310</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3308,7 +3312,7 @@
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>270</v>
@@ -3326,7 +3330,7 @@
         <v>311</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -3352,7 +3356,7 @@
         <v>312</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -3363,10 +3367,10 @@
         <v>265</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="M12" s="15"/>
+      <c r="L12" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
@@ -3391,8 +3395,8 @@
         <v>241</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -3403,7 +3407,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>219</v>
@@ -3418,17 +3422,17 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="E15" s="6" t="s">
         <v>314</v>
       </c>
@@ -3445,15 +3449,15 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
         <v>315</v>
@@ -3471,7 +3475,7 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>258</v>
@@ -3486,7 +3490,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>166</v>
@@ -3500,10 +3504,10 @@
         <v>243</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="M17" s="15"/>
+      <c r="L17" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -3528,8 +3532,8 @@
         <v>143</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -3555,7 +3559,7 @@
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>254</v>
@@ -3585,7 +3589,7 @@
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>255</v>
@@ -3615,7 +3619,7 @@
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>256</v>
@@ -3638,14 +3642,14 @@
       <c r="G22" s="7"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>172</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="8" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>179</v>
@@ -3668,7 +3672,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>173</v>
@@ -3694,16 +3698,16 @@
       <c r="G24" s="7"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>245</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="M24" s="15"/>
+      <c r="L24" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
@@ -3722,20 +3726,20 @@
       <c r="G25" s="7"/>
       <c r="H25" s="3"/>
       <c r="I25" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>246</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C26" s="15"/>
+      <c r="B26" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C26" s="18"/>
       <c r="E26" s="6" t="s">
         <v>322</v>
       </c>
@@ -3745,22 +3749,22 @@
       <c r="G26" s="7"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>247</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
         <v>323</v>
@@ -3771,14 +3775,14 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>174</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>253</v>
@@ -3801,14 +3805,14 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>175</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
     </row>
     <row r="29" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -3827,16 +3831,16 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>248</v>
+        <v>416</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="M29" s="15"/>
+      <c r="L29" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
@@ -3855,14 +3859,14 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>249</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
@@ -3873,7 +3877,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>230</v>
@@ -3881,7 +3885,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>250</v>
@@ -3911,7 +3915,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>251</v>
@@ -3941,7 +3945,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>176</v>
@@ -3971,7 +3975,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>252</v>
@@ -3985,10 +3989,10 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C35" s="15"/>
+      <c r="B35" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C35" s="18"/>
       <c r="E35" s="6" t="s">
         <v>330</v>
       </c>
@@ -3998,7 +4002,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>177</v>
@@ -4012,8 +4016,8 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
       <c r="E36" s="6" t="s">
         <v>331</v>
       </c>
@@ -4264,6 +4268,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="E4:F5"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="L24:M25"/>
@@ -4271,12 +4281,6 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B26:C27"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/use/IntelliJIDEA_ReferenceCard.xlsx
+++ b/use/IntelliJIDEA_ReferenceCard.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="417" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="417" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="zh" sheetId="3" r:id="rId2"/>
+    <sheet name="idea" sheetId="1" r:id="rId1"/>
+    <sheet name="idea中文" sheetId="3" r:id="rId2"/>
+    <sheet name="Android" sheetId="4" r:id="rId3"/>
+    <sheet name="Android中文" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="custom" localSheetId="3">Android中文!$A$108</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="828">
   <si>
     <t>Remember these Shortcuts</t>
   </si>
@@ -1557,13 +1562,1254 @@
   <si>
     <t>转到 超方法/ 超类</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>Windows/Linux</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>常规</t>
+  </si>
+  <si>
+    <t>全部保存</t>
+  </si>
+  <si>
+    <t>Control + S</t>
+  </si>
+  <si>
+    <t>Command + S</t>
+  </si>
+  <si>
+    <t>同步</t>
+  </si>
+  <si>
+    <t>Control + Alt + Y</t>
+  </si>
+  <si>
+    <t>Command + Option + Y</t>
+  </si>
+  <si>
+    <t>最大化/最小化编辑器</t>
+  </si>
+  <si>
+    <t>Control + Shift + F12</t>
+  </si>
+  <si>
+    <t>Control + Command + F12</t>
+  </si>
+  <si>
+    <t>添加到收藏夹</t>
+  </si>
+  <si>
+    <t>Alt + Shift + F</t>
+  </si>
+  <si>
+    <t>Option + Shift + F</t>
+  </si>
+  <si>
+    <t>使用当前配置文件检查当前文件</t>
+  </si>
+  <si>
+    <t>Alt + Shift + I</t>
+  </si>
+  <si>
+    <t>Option + Shift + I</t>
+  </si>
+  <si>
+    <t>快速切换模式</t>
+  </si>
+  <si>
+    <t>Control + `（反引号）</t>
+  </si>
+  <si>
+    <t>打开设置对话框</t>
+  </si>
+  <si>
+    <t>Control + Alt + S</t>
+  </si>
+  <si>
+    <t>Command + ,（英文逗号）</t>
+  </si>
+  <si>
+    <t>打开项目结构对话框</t>
+  </si>
+  <si>
+    <t>Control + Alt + Shift + S</t>
+  </si>
+  <si>
+    <t>Command + ;（英文分号）</t>
+  </si>
+  <si>
+    <t>在标签和工具窗口之间切换</t>
+  </si>
+  <si>
+    <t>Control + Tab</t>
+  </si>
+  <si>
+    <t>在 Studio 内导航和搜索</t>
+  </si>
+  <si>
+    <t>搜索全部内容（包括代码和菜单）</t>
+  </si>
+  <si>
+    <t>按两次 Shift</t>
+  </si>
+  <si>
+    <t>查找</t>
+  </si>
+  <si>
+    <t>Control + F</t>
+  </si>
+  <si>
+    <t>Command + F</t>
+  </si>
+  <si>
+    <t>查找下一个</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>Command + G</t>
+  </si>
+  <si>
+    <t>查找上一个</t>
+  </si>
+  <si>
+    <t>Shift + F3</t>
+  </si>
+  <si>
+    <t>Command + Shift + G</t>
+  </si>
+  <si>
+    <t>替换</t>
+  </si>
+  <si>
+    <t>Control + R</t>
+  </si>
+  <si>
+    <t>Command + R</t>
+  </si>
+  <si>
+    <t>查找操作</t>
+  </si>
+  <si>
+    <t>Control + Shift + A</t>
+  </si>
+  <si>
+    <t>Command + Shift + A</t>
+  </si>
+  <si>
+    <t>按符号名称搜索</t>
+  </si>
+  <si>
+    <t>Control + Alt + Shift + N</t>
+  </si>
+  <si>
+    <t>Command + Option + O</t>
+  </si>
+  <si>
+    <t>查找类</t>
+  </si>
+  <si>
+    <t>Control + N</t>
+  </si>
+  <si>
+    <t>Command + O</t>
+  </si>
+  <si>
+    <t>查找文件（而不是类）</t>
+  </si>
+  <si>
+    <t>Control + Shift + N</t>
+  </si>
+  <si>
+    <t>Command + Shift + O</t>
+  </si>
+  <si>
+    <t>在路径中查找</t>
+  </si>
+  <si>
+    <t>Control + Shift + F</t>
+  </si>
+  <si>
+    <t>Command + Shift + F</t>
+  </si>
+  <si>
+    <t>打开文件结构弹出式菜单</t>
+  </si>
+  <si>
+    <t>Control + F12</t>
+  </si>
+  <si>
+    <t>Command + F12</t>
+  </si>
+  <si>
+    <t>在打开的编辑器标签之前导航</t>
+  </si>
+  <si>
+    <t>Alt + 向右/向左箭头</t>
+  </si>
+  <si>
+    <t>Control + 向右/向左箭头</t>
+  </si>
+  <si>
+    <t>跳到源代码</t>
+  </si>
+  <si>
+    <t>F4 / Control + Enter</t>
+  </si>
+  <si>
+    <t>F4 / Command + 向下箭头</t>
+  </si>
+  <si>
+    <t>在新窗口中打开当前编辑器标签</t>
+  </si>
+  <si>
+    <t>Shift + F4</t>
+  </si>
+  <si>
+    <t>最近打开的文件弹出式菜单</t>
+  </si>
+  <si>
+    <t>Control + E</t>
+  </si>
+  <si>
+    <t>Command + E</t>
+  </si>
+  <si>
+    <t>最近编辑的文件弹出式菜单</t>
+  </si>
+  <si>
+    <t>Control + Shift + E</t>
+  </si>
+  <si>
+    <t>Command + Shift + E</t>
+  </si>
+  <si>
+    <t>转到上一个编辑位置</t>
+  </si>
+  <si>
+    <t>Control + Shift + 退格键</t>
+  </si>
+  <si>
+    <t>Command + Shift + 退格键</t>
+  </si>
+  <si>
+    <t>关闭活动编辑器标签</t>
+  </si>
+  <si>
+    <t>Control + F4</t>
+  </si>
+  <si>
+    <t>Command + W</t>
+  </si>
+  <si>
+    <t>从工具窗口返回到编辑器窗口</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>隐藏活动或上一个活动工具窗口</t>
+  </si>
+  <si>
+    <t>Shift + Esc</t>
+  </si>
+  <si>
+    <t>转到行</t>
+  </si>
+  <si>
+    <t>Control + G</t>
+  </si>
+  <si>
+    <t>Command + L</t>
+  </si>
+  <si>
+    <t>打开类型层次结构</t>
+  </si>
+  <si>
+    <t>Control + H</t>
+  </si>
+  <si>
+    <t>打开方法层次结构</t>
+  </si>
+  <si>
+    <t>Control + Shift + H</t>
+  </si>
+  <si>
+    <t>Command + Shift + H</t>
+  </si>
+  <si>
+    <t>打开调用层次结构</t>
+  </si>
+  <si>
+    <t>Control + Alt + H</t>
+  </si>
+  <si>
+    <t>Control + Option + H</t>
+  </si>
+  <si>
+    <t>编写代码</t>
+  </si>
+  <si>
+    <t>生成代码（getter、setter、构造函数、hashCode/equals、toString、新文件、新类）</t>
+  </si>
+  <si>
+    <t>Alt + Insert</t>
+  </si>
+  <si>
+    <t>Command + N</t>
+  </si>
+  <si>
+    <t>替换方法</t>
+  </si>
+  <si>
+    <t>Control + O</t>
+  </si>
+  <si>
+    <t>实现方法</t>
+  </si>
+  <si>
+    <t>Control + I</t>
+  </si>
+  <si>
+    <t>控制语句 (if...else / try...catch / etc.)</t>
+  </si>
+  <si>
+    <t>Control + Alt + T</t>
+  </si>
+  <si>
+    <t>Command + Option + T</t>
+  </si>
+  <si>
+    <t>删除插入符处的行</t>
+  </si>
+  <si>
+    <t>Control + Y</t>
+  </si>
+  <si>
+    <t>Command + 退格键</t>
+  </si>
+  <si>
+    <t>折叠/展开当前代码块</t>
+  </si>
+  <si>
+    <t>Control + 减号/加号</t>
+  </si>
+  <si>
+    <t>Command + 减号/加号</t>
+  </si>
+  <si>
+    <t>折叠/展开所有代码块</t>
+  </si>
+  <si>
+    <t>Control + Shift + 减号/加号</t>
+  </si>
+  <si>
+    <t>Command + Shift + 减号/加号</t>
+  </si>
+  <si>
+    <t>复制当前行或选择</t>
+  </si>
+  <si>
+    <t>Control + D</t>
+  </si>
+  <si>
+    <t>Command + D</t>
+  </si>
+  <si>
+    <t>基本代码自动完成</t>
+  </si>
+  <si>
+    <t>Control + 空格键</t>
+  </si>
+  <si>
+    <t>智能代码自动完成（按预期类型过滤方法和变量列表）</t>
+  </si>
+  <si>
+    <t>Control + Shift + 空格键</t>
+  </si>
+  <si>
+    <t>完成语句</t>
+  </si>
+  <si>
+    <t>Control + Shift + Enter</t>
+  </si>
+  <si>
+    <t>Command + Shift + Enter</t>
+  </si>
+  <si>
+    <t>快速文档查找</t>
+  </si>
+  <si>
+    <t>Control + Q</t>
+  </si>
+  <si>
+    <t>Control + J</t>
+  </si>
+  <si>
+    <t>显示选定方法的参数</t>
+  </si>
+  <si>
+    <t>Control + P</t>
+  </si>
+  <si>
+    <t>Command + P</t>
+  </si>
+  <si>
+    <t>转到声明（直接）</t>
+  </si>
+  <si>
+    <t>Control + B 或 Control + 点击</t>
+  </si>
+  <si>
+    <t>Command + B 或 Command + 点击</t>
+  </si>
+  <si>
+    <t>转到实现</t>
+  </si>
+  <si>
+    <t>Control + Alt + B</t>
+  </si>
+  <si>
+    <t>Command + Alt + B</t>
+  </si>
+  <si>
+    <t>转到超类方法/超类</t>
+  </si>
+  <si>
+    <t>Control + U</t>
+  </si>
+  <si>
+    <t>Command + U</t>
+  </si>
+  <si>
+    <t>打开快速定义查找</t>
+  </si>
+  <si>
+    <t>Control + Shift + I</t>
+  </si>
+  <si>
+    <t>Command + Y</t>
+  </si>
+  <si>
+    <t>切换项目工具窗口的可见性</t>
+  </si>
+  <si>
+    <t>Alt + 1</t>
+  </si>
+  <si>
+    <t>Command + 1</t>
+  </si>
+  <si>
+    <t>切换书签</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>通过助记切换书签</t>
+  </si>
+  <si>
+    <t>Control + F11</t>
+  </si>
+  <si>
+    <t>Option + F3</t>
+  </si>
+  <si>
+    <t>通过行注释添加注释/取消注释</t>
+  </si>
+  <si>
+    <t>Control + /</t>
+  </si>
+  <si>
+    <t>Command + /</t>
+  </si>
+  <si>
+    <t>通过块注释添加注释/取消注释</t>
+  </si>
+  <si>
+    <t>Control + Shift + /</t>
+  </si>
+  <si>
+    <t>Command + Shift + /</t>
+  </si>
+  <si>
+    <t>选择连续增加的代码块</t>
+  </si>
+  <si>
+    <t>Control + W</t>
+  </si>
+  <si>
+    <t>Option + Up</t>
+  </si>
+  <si>
+    <t>将当前选择退回到上一个状态</t>
+  </si>
+  <si>
+    <t>Control + Shift + W</t>
+  </si>
+  <si>
+    <t>Option + Down</t>
+  </si>
+  <si>
+    <t>移动到代码块起始位置</t>
+  </si>
+  <si>
+    <t>Control + [</t>
+  </si>
+  <si>
+    <t>Option + Command + [</t>
+  </si>
+  <si>
+    <t>移动到代码块结束位置</t>
+  </si>
+  <si>
+    <t>Control + ]</t>
+  </si>
+  <si>
+    <t>Option + Command + ]</t>
+  </si>
+  <si>
+    <t>从当前位置选择到代码块起始位置</t>
+  </si>
+  <si>
+    <t>Control + Shift + [</t>
+  </si>
+  <si>
+    <t>Option + Command + Shift + [</t>
+  </si>
+  <si>
+    <t>从当前位置选择到代码块结束位置</t>
+  </si>
+  <si>
+    <t>Control + Shift + ]</t>
+  </si>
+  <si>
+    <t>Option + Command + Shift + ]</t>
+  </si>
+  <si>
+    <t>从当前位置删除到单词结尾</t>
+  </si>
+  <si>
+    <t>Control + Delete</t>
+  </si>
+  <si>
+    <t>Option + Delete</t>
+  </si>
+  <si>
+    <t>从当前位置删除到单词开头</t>
+  </si>
+  <si>
+    <t>Control + 退格键</t>
+  </si>
+  <si>
+    <t>Option + 退格键</t>
+  </si>
+  <si>
+    <t>优化导入</t>
+  </si>
+  <si>
+    <t>Control + Alt + O</t>
+  </si>
+  <si>
+    <t>Control + Option + O</t>
+  </si>
+  <si>
+    <t>项目快速修复（显示意图操作和快速修复）</t>
+  </si>
+  <si>
+    <t>Alt + Enter</t>
+  </si>
+  <si>
+    <t>Option + Enter</t>
+  </si>
+  <si>
+    <t>重新格式化代码</t>
+  </si>
+  <si>
+    <t>Control + Alt + L</t>
+  </si>
+  <si>
+    <t>Command + Option + L</t>
+  </si>
+  <si>
+    <t>自动缩进行</t>
+  </si>
+  <si>
+    <t>Control + Alt + I</t>
+  </si>
+  <si>
+    <t>Control + Option + I</t>
+  </si>
+  <si>
+    <t>缩进/取消缩进行</t>
+  </si>
+  <si>
+    <t>Tab/Shift + Tab</t>
+  </si>
+  <si>
+    <t>智能行合并</t>
+  </si>
+  <si>
+    <t>Control + Shift + J</t>
+  </si>
+  <si>
+    <t>智能行拆分</t>
+  </si>
+  <si>
+    <t>Control + Enter</t>
+  </si>
+  <si>
+    <t>Command + Enter</t>
+  </si>
+  <si>
+    <t>开始新行</t>
+  </si>
+  <si>
+    <t>Shift + Enter</t>
+  </si>
+  <si>
+    <t>下一个/上一个突出显示的错误</t>
+  </si>
+  <si>
+    <t>F2 / Shift + F2</t>
+  </si>
+  <si>
+    <t>构建并运行</t>
+  </si>
+  <si>
+    <t>构建</t>
+  </si>
+  <si>
+    <t>Control + F9</t>
+  </si>
+  <si>
+    <t>Command + F9</t>
+  </si>
+  <si>
+    <t>Shift + F10</t>
+  </si>
+  <si>
+    <t>调试</t>
+  </si>
+  <si>
+    <t>Shift + F9</t>
+  </si>
+  <si>
+    <t>跳过</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>逐步执行</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>智能逐步执行</t>
+  </si>
+  <si>
+    <t>Shift + F7</t>
+  </si>
+  <si>
+    <t>跳出</t>
+  </si>
+  <si>
+    <t>Shift + F8</t>
+  </si>
+  <si>
+    <t>运行到光标位置</t>
+  </si>
+  <si>
+    <t>Alt + F9</t>
+  </si>
+  <si>
+    <t>Option + F9</t>
+  </si>
+  <si>
+    <t>评估表达式</t>
+  </si>
+  <si>
+    <t>Alt + F8</t>
+  </si>
+  <si>
+    <t>Option + F8</t>
+  </si>
+  <si>
+    <t>继续运行程序</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>Command + Option + R</t>
+  </si>
+  <si>
+    <t>切换断点</t>
+  </si>
+  <si>
+    <t>Control + F8</t>
+  </si>
+  <si>
+    <t>Command + F8</t>
+  </si>
+  <si>
+    <t>查看断点</t>
+  </si>
+  <si>
+    <t>Control + Shift + F8</t>
+  </si>
+  <si>
+    <t>Command + Shift + F8</t>
+  </si>
+  <si>
+    <t>重构</t>
+  </si>
+  <si>
+    <t>复制</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>安全删除</t>
+  </si>
+  <si>
+    <t>Alt + Delete</t>
+  </si>
+  <si>
+    <t>Command + Delete</t>
+  </si>
+  <si>
+    <t>重命名</t>
+  </si>
+  <si>
+    <t>Shift + F6</t>
+  </si>
+  <si>
+    <t>更改签名</t>
+  </si>
+  <si>
+    <t>Control + F6</t>
+  </si>
+  <si>
+    <t>Command + F6</t>
+  </si>
+  <si>
+    <t>内联</t>
+  </si>
+  <si>
+    <t>Control + Alt + N</t>
+  </si>
+  <si>
+    <t>Command + Option + N</t>
+  </si>
+  <si>
+    <t>提取方法</t>
+  </si>
+  <si>
+    <t>Control + Alt + M</t>
+  </si>
+  <si>
+    <t>Command + Option + M</t>
+  </si>
+  <si>
+    <t>提取变量</t>
+  </si>
+  <si>
+    <t>Control + Alt + V</t>
+  </si>
+  <si>
+    <t>Command + Option + V</t>
+  </si>
+  <si>
+    <t>提取字段</t>
+  </si>
+  <si>
+    <t>Control + Alt + F</t>
+  </si>
+  <si>
+    <t>Command + Option + F</t>
+  </si>
+  <si>
+    <t>提取常量</t>
+  </si>
+  <si>
+    <t>Control + Alt + C</t>
+  </si>
+  <si>
+    <t>Command + Option + C</t>
+  </si>
+  <si>
+    <t>提取参数</t>
+  </si>
+  <si>
+    <t>Control + Alt + P</t>
+  </si>
+  <si>
+    <t>Command + Option + P</t>
+  </si>
+  <si>
+    <t>版本控制/本地历史记录</t>
+  </si>
+  <si>
+    <t>将项目提交到 VCS</t>
+  </si>
+  <si>
+    <t>Control + K</t>
+  </si>
+  <si>
+    <t>Command + K</t>
+  </si>
+  <si>
+    <t>从 VCS 更新项目</t>
+  </si>
+  <si>
+    <t>Control + T</t>
+  </si>
+  <si>
+    <t>Command + T</t>
+  </si>
+  <si>
+    <t>查看最近变更</t>
+  </si>
+  <si>
+    <t>Alt + Shift + C</t>
+  </si>
+  <si>
+    <t>Option + Shift + C</t>
+  </si>
+  <si>
+    <t>打开 VCS 弹出式菜单</t>
+  </si>
+  <si>
+    <t>Alt + `（反引号）</t>
+  </si>
+  <si>
+    <t>Control + V</t>
+  </si>
+  <si>
+    <t>配置自定义键映射</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Save all</t>
+  </si>
+  <si>
+    <t>Synchronize</t>
+  </si>
+  <si>
+    <t>Maximize/minimize editor</t>
+  </si>
+  <si>
+    <t>Add to favorites</t>
+  </si>
+  <si>
+    <t>Inspect current file with current profile</t>
+  </si>
+  <si>
+    <t>Quick switch scheme</t>
+  </si>
+  <si>
+    <t>Control + ` (backquote)</t>
+  </si>
+  <si>
+    <t>Open settings dialogue</t>
+  </si>
+  <si>
+    <t>Command + , (comma)</t>
+  </si>
+  <si>
+    <t>Open project structure dialog</t>
+  </si>
+  <si>
+    <t>Command + ; (semicolon)</t>
+  </si>
+  <si>
+    <t>Switch between tabs and tool window</t>
+  </si>
+  <si>
+    <t>Navigating and searching within Studio</t>
+  </si>
+  <si>
+    <t>Search everything (including code and menus)</t>
+  </si>
+  <si>
+    <t>Press Shift twice</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Find next</t>
+  </si>
+  <si>
+    <t>Find previous</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Find action</t>
+  </si>
+  <si>
+    <t>Search by symbol name</t>
+  </si>
+  <si>
+    <t>Find class</t>
+  </si>
+  <si>
+    <t>Find file (instead of class)</t>
+  </si>
+  <si>
+    <t>Find in path</t>
+  </si>
+  <si>
+    <t>Open file structure pop-up</t>
+  </si>
+  <si>
+    <t>Navigate between open editor tabs</t>
+  </si>
+  <si>
+    <t>Alt + Right/Left Arrow</t>
+  </si>
+  <si>
+    <t>Control + Right/Left Arrow</t>
+  </si>
+  <si>
+    <t>Jump to source</t>
+  </si>
+  <si>
+    <t>F4 / Command + Down Arrow</t>
+  </si>
+  <si>
+    <t>Open current editor tab in new window</t>
+  </si>
+  <si>
+    <t>Recently opened files pop-up</t>
+  </si>
+  <si>
+    <t>Recently edited files pop-up</t>
+  </si>
+  <si>
+    <t>Go to last edit location</t>
+  </si>
+  <si>
+    <t>Control + Shift + Backspace</t>
+  </si>
+  <si>
+    <t>Command + Shift + Backspace</t>
+  </si>
+  <si>
+    <t>Close active editor tab</t>
+  </si>
+  <si>
+    <t>Return to editor window from a tool window</t>
+  </si>
+  <si>
+    <t>Hide active or last active tool window</t>
+  </si>
+  <si>
+    <t>Go to line</t>
+  </si>
+  <si>
+    <t>Open type hierarchy</t>
+  </si>
+  <si>
+    <t>Open method hierarchy</t>
+  </si>
+  <si>
+    <t>Open call hierarchy</t>
+  </si>
+  <si>
+    <t>Writing code</t>
+  </si>
+  <si>
+    <t>Generate code (getters, setters, constructors, hashCode/equals, toString, new file, new class)</t>
+  </si>
+  <si>
+    <t>Override methods</t>
+  </si>
+  <si>
+    <t>Implement methods</t>
+  </si>
+  <si>
+    <t>Surround with (if...else / try...catch / etc.)</t>
+  </si>
+  <si>
+    <t>Delete line at caret</t>
+  </si>
+  <si>
+    <t>Command + Backspace</t>
+  </si>
+  <si>
+    <t>Collapse/expand current code block</t>
+  </si>
+  <si>
+    <t>Control + minus/plus</t>
+  </si>
+  <si>
+    <t>Command + minus/plus</t>
+  </si>
+  <si>
+    <t>Collapse/expand all code blocks</t>
+  </si>
+  <si>
+    <t>Control + Shift + minus/plus</t>
+  </si>
+  <si>
+    <t>Command + Shift + minus/plus</t>
+  </si>
+  <si>
+    <t>Duplicate current line or selection</t>
+  </si>
+  <si>
+    <t>Basic code completion</t>
+  </si>
+  <si>
+    <t>Control + Space</t>
+  </si>
+  <si>
+    <t>Smart code completion (filters the list of methods and variables by expected type)</t>
+  </si>
+  <si>
+    <t>Control + Shift + Space</t>
+  </si>
+  <si>
+    <t>Complete statement</t>
+  </si>
+  <si>
+    <t>Quick documentation lookup</t>
+  </si>
+  <si>
+    <t>Show parameters for selected method</t>
+  </si>
+  <si>
+    <t>Go to declaration (directly)</t>
+  </si>
+  <si>
+    <t>Control + B or Control + Click</t>
+  </si>
+  <si>
+    <t>Command + B or Command + Click</t>
+  </si>
+  <si>
+    <t>Go to implementations</t>
+  </si>
+  <si>
+    <t>Go to super-method/super-class</t>
+  </si>
+  <si>
+    <t>Open quick definition lookup</t>
+  </si>
+  <si>
+    <t>Toggle project tool window visibility</t>
+  </si>
+  <si>
+    <t>Toggle bookmark</t>
+  </si>
+  <si>
+    <t>Toggle bookmark with mnemonic</t>
+  </si>
+  <si>
+    <t>Comment/uncomment with line comment</t>
+  </si>
+  <si>
+    <t>Comment/uncomment with block comment</t>
+  </si>
+  <si>
+    <t>Select successively increasing code blocks</t>
+  </si>
+  <si>
+    <t>Decrease current selection to previous state</t>
+  </si>
+  <si>
+    <t>Move to code block start</t>
+  </si>
+  <si>
+    <t>Move to code block end</t>
+  </si>
+  <si>
+    <t>Select to the code block start</t>
+  </si>
+  <si>
+    <t>Select to the code block end</t>
+  </si>
+  <si>
+    <t>Delete to end of word</t>
+  </si>
+  <si>
+    <t>Delete to start of word</t>
+  </si>
+  <si>
+    <t>Control + Backspace</t>
+  </si>
+  <si>
+    <t>Option + Backspace</t>
+  </si>
+  <si>
+    <t>Optimize imports</t>
+  </si>
+  <si>
+    <t>Project quick fix (show intention actions and quick fixes)</t>
+  </si>
+  <si>
+    <t>Reformat code</t>
+  </si>
+  <si>
+    <t>Auto-indent lines</t>
+  </si>
+  <si>
+    <t>Indent/unindent lines</t>
+  </si>
+  <si>
+    <t>Smart line join</t>
+  </si>
+  <si>
+    <t>Smart line split</t>
+  </si>
+  <si>
+    <t>Start new line</t>
+  </si>
+  <si>
+    <t>Next/previous highlighted error</t>
+  </si>
+  <si>
+    <t>Build and run</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <r>
+      <t>Apply changes (with </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instant Run)</t>
+    </r>
+  </si>
+  <si>
+    <t>Control + F10</t>
+  </si>
+  <si>
+    <t>Control + Command + R</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>Step over</t>
+  </si>
+  <si>
+    <t>Step into</t>
+  </si>
+  <si>
+    <t>Smart step into</t>
+  </si>
+  <si>
+    <t>Step out</t>
+  </si>
+  <si>
+    <t>Run to cursor</t>
+  </si>
+  <si>
+    <t>Evaluate expression</t>
+  </si>
+  <si>
+    <t>Resume program</t>
+  </si>
+  <si>
+    <t>Toggle breakpoint</t>
+  </si>
+  <si>
+    <t>View breakpoints</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Safe delete</t>
+  </si>
+  <si>
+    <t>Rename</t>
+  </si>
+  <si>
+    <t>Change signature</t>
+  </si>
+  <si>
+    <t>Inline</t>
+  </si>
+  <si>
+    <t>Extract method</t>
+  </si>
+  <si>
+    <t>Extract variable</t>
+  </si>
+  <si>
+    <t>Extract field</t>
+  </si>
+  <si>
+    <t>Extract constant</t>
+  </si>
+  <si>
+    <t>Extract parameter</t>
+  </si>
+  <si>
+    <t>Version control / local history</t>
+  </si>
+  <si>
+    <t>Commit project to VCS</t>
+  </si>
+  <si>
+    <t>Update project from VCS</t>
+  </si>
+  <si>
+    <t>View recent changes</t>
+  </si>
+  <si>
+    <t>Open VCS popup</t>
+  </si>
+  <si>
+    <t>Alt + ` (backquote)</t>
+  </si>
+  <si>
+    <t>Configure custom keymaps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1624,6 +2870,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1698,6 +2953,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1705,9 +2963,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2001,8 +3256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2018,7 +3273,7 @@
     <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2036,7 +3291,7 @@
       </c>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
@@ -2058,7 +3313,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +3337,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2102,7 +3357,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +3381,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +3407,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +3429,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +3451,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +3475,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +3501,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2272,7 +3527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -2298,7 +3553,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +3575,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +3597,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
@@ -2360,7 +3615,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +3639,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +3665,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -2436,7 +3691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -2462,7 +3717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -2484,7 +3739,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -2506,7 +3761,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
@@ -2530,7 +3785,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
@@ -2556,7 +3811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2582,7 +3837,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -2604,7 +3859,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>65</v>
       </c>
@@ -2620,7 +3875,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -2640,7 +3895,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
@@ -2662,7 +3917,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -2684,7 +3939,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -2706,7 +3961,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>76</v>
       </c>
@@ -2728,7 +3983,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
@@ -2746,7 +4001,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>78</v>
       </c>
@@ -2764,7 +4019,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -2776,15 +4031,15 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +4050,7 @@
       <c r="D37" s="11"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2811,7 +4066,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +4082,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -2843,7 +4098,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
@@ -2859,7 +4114,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -2875,7 +4130,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -2891,7 +4146,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>29</v>
       </c>
@@ -2907,7 +4162,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
         <v>90</v>
       </c>
@@ -2917,7 +4172,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>30</v>
       </c>
@@ -2931,7 +4186,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -2947,7 +4202,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -2963,7 +4218,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -2979,7 +4234,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +4244,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
@@ -2999,7 +4254,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>36</v>
       </c>
@@ -3009,7 +4264,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
@@ -3019,7 +4274,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -3029,7 +4284,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -3039,19 +4294,19 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
@@ -3087,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3110,25 +4365,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="1"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1"/>
       <c r="H2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4"/>
       <c r="H3" s="3"/>
       <c r="K3" s="3"/>
@@ -3138,35 +4393,35 @@
         <v>271</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="9"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="15"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="9"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
@@ -3367,10 +4622,10 @@
         <v>265</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
@@ -3395,8 +4650,8 @@
         <v>241</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
@@ -3429,10 +4684,10 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="15"/>
       <c r="E15" s="6" t="s">
         <v>314</v>
       </c>
@@ -3456,8 +4711,8 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6" t="s">
         <v>315</v>
@@ -3504,10 +4759,10 @@
         <v>243</v>
       </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -3532,8 +4787,8 @@
         <v>143</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -3704,10 +4959,10 @@
         <v>245</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
@@ -3732,14 +4987,14 @@
         <v>246</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="15"/>
       <c r="E26" s="6" t="s">
         <v>322</v>
       </c>
@@ -3763,8 +5018,8 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2" t="s">
         <v>323</v>
@@ -3837,10 +5092,10 @@
         <v>416</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="15"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
@@ -3865,8 +5120,8 @@
         <v>249</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
@@ -3989,10 +5244,10 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="15"/>
       <c r="E35" s="6" t="s">
         <v>330</v>
       </c>
@@ -4016,8 +5271,8 @@
       </c>
     </row>
     <row r="36" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="E36" s="6" t="s">
         <v>331</v>
       </c>
@@ -4268,12 +5523,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L17:M18"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="E4:F5"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="L24:M25"/>
@@ -4281,9 +5530,2347 @@
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B35:C36"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L17:M18"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="E4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>706</v>
+      </c>
+      <c r="B8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>708</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>714</v>
+      </c>
+      <c r="B13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>716</v>
+      </c>
+      <c r="B14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>717</v>
+      </c>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>718</v>
+      </c>
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>719</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>720</v>
+      </c>
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>721</v>
+      </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>722</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>723</v>
+      </c>
+      <c r="B21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>724</v>
+      </c>
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+      <c r="B23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>726</v>
+      </c>
+      <c r="B24" t="s">
+        <v>727</v>
+      </c>
+      <c r="C24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>729</v>
+      </c>
+      <c r="B25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>731</v>
+      </c>
+      <c r="B26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>732</v>
+      </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>733</v>
+      </c>
+      <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>734</v>
+      </c>
+      <c r="B29" t="s">
+        <v>735</v>
+      </c>
+      <c r="C29" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>737</v>
+      </c>
+      <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>738</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>739</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>740</v>
+      </c>
+      <c r="B33" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>741</v>
+      </c>
+      <c r="B34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>742</v>
+      </c>
+      <c r="B35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>743</v>
+      </c>
+      <c r="B36" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>745</v>
+      </c>
+      <c r="B38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>746</v>
+      </c>
+      <c r="B39" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>747</v>
+      </c>
+      <c r="B40" t="s">
+        <v>523</v>
+      </c>
+      <c r="C40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>748</v>
+      </c>
+      <c r="B41" t="s">
+        <v>525</v>
+      </c>
+      <c r="C41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>749</v>
+      </c>
+      <c r="B42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>751</v>
+      </c>
+      <c r="B43" t="s">
+        <v>752</v>
+      </c>
+      <c r="C43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>754</v>
+      </c>
+      <c r="B44" t="s">
+        <v>755</v>
+      </c>
+      <c r="C44" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>757</v>
+      </c>
+      <c r="B45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>758</v>
+      </c>
+      <c r="B46" t="s">
+        <v>759</v>
+      </c>
+      <c r="C46" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>760</v>
+      </c>
+      <c r="B47" t="s">
+        <v>761</v>
+      </c>
+      <c r="C47" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>762</v>
+      </c>
+      <c r="B48" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>763</v>
+      </c>
+      <c r="B49" t="s">
+        <v>547</v>
+      </c>
+      <c r="C49" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>764</v>
+      </c>
+      <c r="B50" t="s">
+        <v>550</v>
+      </c>
+      <c r="C50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>765</v>
+      </c>
+      <c r="B51" t="s">
+        <v>766</v>
+      </c>
+      <c r="C51" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>768</v>
+      </c>
+      <c r="B52" t="s">
+        <v>556</v>
+      </c>
+      <c r="C52" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>769</v>
+      </c>
+      <c r="B53" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>770</v>
+      </c>
+      <c r="B54" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>771</v>
+      </c>
+      <c r="B55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>772</v>
+      </c>
+      <c r="B56" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>773</v>
+      </c>
+      <c r="B57" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>774</v>
+      </c>
+      <c r="B58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>775</v>
+      </c>
+      <c r="B59" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>776</v>
+      </c>
+      <c r="B60" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>777</v>
+      </c>
+      <c r="B61" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>778</v>
+      </c>
+      <c r="B62" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>779</v>
+      </c>
+      <c r="B63" t="s">
+        <v>588</v>
+      </c>
+      <c r="C63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>780</v>
+      </c>
+      <c r="B64" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>781</v>
+      </c>
+      <c r="B65" t="s">
+        <v>594</v>
+      </c>
+      <c r="C65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>782</v>
+      </c>
+      <c r="B66" t="s">
+        <v>597</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>783</v>
+      </c>
+      <c r="B67" t="s">
+        <v>784</v>
+      </c>
+      <c r="C67" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>786</v>
+      </c>
+      <c r="B68" t="s">
+        <v>603</v>
+      </c>
+      <c r="C68" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>787</v>
+      </c>
+      <c r="B69" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>788</v>
+      </c>
+      <c r="B70" t="s">
+        <v>609</v>
+      </c>
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>789</v>
+      </c>
+      <c r="B71" t="s">
+        <v>612</v>
+      </c>
+      <c r="C71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>790</v>
+      </c>
+      <c r="B72" t="s">
+        <v>615</v>
+      </c>
+      <c r="C72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>791</v>
+      </c>
+      <c r="B73" t="s">
+        <v>617</v>
+      </c>
+      <c r="C73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>792</v>
+      </c>
+      <c r="B74" t="s">
+        <v>619</v>
+      </c>
+      <c r="C74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>793</v>
+      </c>
+      <c r="B75" t="s">
+        <v>622</v>
+      </c>
+      <c r="C75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>794</v>
+      </c>
+      <c r="B76" t="s">
+        <v>624</v>
+      </c>
+      <c r="C76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>796</v>
+      </c>
+      <c r="B78" t="s">
+        <v>627</v>
+      </c>
+      <c r="C78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>795</v>
+      </c>
+      <c r="B79" t="s">
+        <v>629</v>
+      </c>
+      <c r="C79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>797</v>
+      </c>
+      <c r="B80" t="s">
+        <v>798</v>
+      </c>
+      <c r="C80" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>800</v>
+      </c>
+      <c r="B82" t="s">
+        <v>631</v>
+      </c>
+      <c r="C82" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>801</v>
+      </c>
+      <c r="B83" t="s">
+        <v>633</v>
+      </c>
+      <c r="C83" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>802</v>
+      </c>
+      <c r="B84" t="s">
+        <v>635</v>
+      </c>
+      <c r="C84" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>803</v>
+      </c>
+      <c r="B85" t="s">
+        <v>637</v>
+      </c>
+      <c r="C85" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>804</v>
+      </c>
+      <c r="B86" t="s">
+        <v>639</v>
+      </c>
+      <c r="C86" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>805</v>
+      </c>
+      <c r="B87" t="s">
+        <v>641</v>
+      </c>
+      <c r="C87" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>806</v>
+      </c>
+      <c r="B88" t="s">
+        <v>644</v>
+      </c>
+      <c r="C88" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>807</v>
+      </c>
+      <c r="B89" t="s">
+        <v>647</v>
+      </c>
+      <c r="C89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>808</v>
+      </c>
+      <c r="B90" t="s">
+        <v>650</v>
+      </c>
+      <c r="C90" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>809</v>
+      </c>
+      <c r="B91" t="s">
+        <v>653</v>
+      </c>
+      <c r="C91" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>810</v>
+      </c>
+      <c r="B93" t="s">
+        <v>657</v>
+      </c>
+      <c r="C93" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>811</v>
+      </c>
+      <c r="B94" t="s">
+        <v>659</v>
+      </c>
+      <c r="C94" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>812</v>
+      </c>
+      <c r="B95" t="s">
+        <v>661</v>
+      </c>
+      <c r="C95" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>813</v>
+      </c>
+      <c r="B96" t="s">
+        <v>664</v>
+      </c>
+      <c r="C96" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>814</v>
+      </c>
+      <c r="B97" t="s">
+        <v>666</v>
+      </c>
+      <c r="C97" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>815</v>
+      </c>
+      <c r="B98" t="s">
+        <v>669</v>
+      </c>
+      <c r="C98" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>816</v>
+      </c>
+      <c r="B99" t="s">
+        <v>672</v>
+      </c>
+      <c r="C99" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>817</v>
+      </c>
+      <c r="B100" t="s">
+        <v>675</v>
+      </c>
+      <c r="C100" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>818</v>
+      </c>
+      <c r="B101" t="s">
+        <v>678</v>
+      </c>
+      <c r="C101" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>819</v>
+      </c>
+      <c r="B102" t="s">
+        <v>681</v>
+      </c>
+      <c r="C102" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>820</v>
+      </c>
+      <c r="B103" t="s">
+        <v>684</v>
+      </c>
+      <c r="C103" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>822</v>
+      </c>
+      <c r="B105" t="s">
+        <v>688</v>
+      </c>
+      <c r="C105" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>823</v>
+      </c>
+      <c r="B106" t="s">
+        <v>691</v>
+      </c>
+      <c r="C106" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>824</v>
+      </c>
+      <c r="B107" t="s">
+        <v>694</v>
+      </c>
+      <c r="C107" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>825</v>
+      </c>
+      <c r="B108" t="s">
+        <v>826</v>
+      </c>
+      <c r="C108" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>827</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A80" r:id="rId1" location="instant-run" display="https://developer.android.com/studio/run/index.html - instant-run"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.25" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C13" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>458</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B17" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" t="s">
+        <v>476</v>
+      </c>
+      <c r="C22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" t="s">
+        <v>479</v>
+      </c>
+      <c r="C23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>481</v>
+      </c>
+      <c r="B24" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>489</v>
+      </c>
+      <c r="B27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>492</v>
+      </c>
+      <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B29" t="s">
+        <v>496</v>
+      </c>
+      <c r="C29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>498</v>
+      </c>
+      <c r="B30" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" t="s">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B33" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C34" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B35" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>513</v>
+      </c>
+      <c r="B36" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>517</v>
+      </c>
+      <c r="B38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>520</v>
+      </c>
+      <c r="B39" t="s">
+        <v>521</v>
+      </c>
+      <c r="C39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>522</v>
+      </c>
+      <c r="B40" t="s">
+        <v>523</v>
+      </c>
+      <c r="C40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>524</v>
+      </c>
+      <c r="B41" t="s">
+        <v>525</v>
+      </c>
+      <c r="C41" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" t="s">
+        <v>531</v>
+      </c>
+      <c r="C43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C44" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>536</v>
+      </c>
+      <c r="B45" t="s">
+        <v>537</v>
+      </c>
+      <c r="C45" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>539</v>
+      </c>
+      <c r="B46" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>541</v>
+      </c>
+      <c r="B47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C47" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>543</v>
+      </c>
+      <c r="B48" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>546</v>
+      </c>
+      <c r="B49" t="s">
+        <v>547</v>
+      </c>
+      <c r="C49" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>549</v>
+      </c>
+      <c r="B50" t="s">
+        <v>550</v>
+      </c>
+      <c r="C50" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>552</v>
+      </c>
+      <c r="B51" t="s">
+        <v>553</v>
+      </c>
+      <c r="C51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>555</v>
+      </c>
+      <c r="B52" t="s">
+        <v>556</v>
+      </c>
+      <c r="C52" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>558</v>
+      </c>
+      <c r="B53" t="s">
+        <v>559</v>
+      </c>
+      <c r="C53" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>561</v>
+      </c>
+      <c r="B54" t="s">
+        <v>562</v>
+      </c>
+      <c r="C54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>564</v>
+      </c>
+      <c r="B55" t="s">
+        <v>565</v>
+      </c>
+      <c r="C55" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>567</v>
+      </c>
+      <c r="B56" t="s">
+        <v>568</v>
+      </c>
+      <c r="C56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>569</v>
+      </c>
+      <c r="B57" t="s">
+        <v>570</v>
+      </c>
+      <c r="C57" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>572</v>
+      </c>
+      <c r="B58" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>575</v>
+      </c>
+      <c r="B59" t="s">
+        <v>576</v>
+      </c>
+      <c r="C59" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" t="s">
+        <v>582</v>
+      </c>
+      <c r="C61" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>584</v>
+      </c>
+      <c r="B62" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>587</v>
+      </c>
+      <c r="B63" t="s">
+        <v>588</v>
+      </c>
+      <c r="C63" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>590</v>
+      </c>
+      <c r="B64" t="s">
+        <v>591</v>
+      </c>
+      <c r="C64" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>593</v>
+      </c>
+      <c r="B65" t="s">
+        <v>594</v>
+      </c>
+      <c r="C65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>596</v>
+      </c>
+      <c r="B66" t="s">
+        <v>597</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>599</v>
+      </c>
+      <c r="B67" t="s">
+        <v>600</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>602</v>
+      </c>
+      <c r="B68" t="s">
+        <v>603</v>
+      </c>
+      <c r="C68" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>605</v>
+      </c>
+      <c r="B69" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>608</v>
+      </c>
+      <c r="B70" t="s">
+        <v>609</v>
+      </c>
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>611</v>
+      </c>
+      <c r="B71" t="s">
+        <v>612</v>
+      </c>
+      <c r="C71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>614</v>
+      </c>
+      <c r="B72" t="s">
+        <v>615</v>
+      </c>
+      <c r="C72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>616</v>
+      </c>
+      <c r="B73" t="s">
+        <v>617</v>
+      </c>
+      <c r="C73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>618</v>
+      </c>
+      <c r="B74" t="s">
+        <v>619</v>
+      </c>
+      <c r="C74" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>621</v>
+      </c>
+      <c r="B75" t="s">
+        <v>622</v>
+      </c>
+      <c r="C75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>623</v>
+      </c>
+      <c r="B76" t="s">
+        <v>624</v>
+      </c>
+      <c r="C76" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>626</v>
+      </c>
+      <c r="B78" t="s">
+        <v>627</v>
+      </c>
+      <c r="C78" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>625</v>
+      </c>
+      <c r="B79" t="s">
+        <v>629</v>
+      </c>
+      <c r="C79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>630</v>
+      </c>
+      <c r="B81" t="s">
+        <v>631</v>
+      </c>
+      <c r="C81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>632</v>
+      </c>
+      <c r="B82" t="s">
+        <v>633</v>
+      </c>
+      <c r="C82" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>634</v>
+      </c>
+      <c r="B83" t="s">
+        <v>635</v>
+      </c>
+      <c r="C83" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>636</v>
+      </c>
+      <c r="B84" t="s">
+        <v>637</v>
+      </c>
+      <c r="C84" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>638</v>
+      </c>
+      <c r="B85" t="s">
+        <v>639</v>
+      </c>
+      <c r="C85" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>640</v>
+      </c>
+      <c r="B86" t="s">
+        <v>641</v>
+      </c>
+      <c r="C86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>643</v>
+      </c>
+      <c r="B87" t="s">
+        <v>644</v>
+      </c>
+      <c r="C87" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>646</v>
+      </c>
+      <c r="B88" t="s">
+        <v>647</v>
+      </c>
+      <c r="C88" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>649</v>
+      </c>
+      <c r="B89" t="s">
+        <v>650</v>
+      </c>
+      <c r="C89" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>652</v>
+      </c>
+      <c r="B90" t="s">
+        <v>653</v>
+      </c>
+      <c r="C90" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>656</v>
+      </c>
+      <c r="B92" t="s">
+        <v>657</v>
+      </c>
+      <c r="C92" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>658</v>
+      </c>
+      <c r="B93" t="s">
+        <v>659</v>
+      </c>
+      <c r="C93" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>660</v>
+      </c>
+      <c r="B94" t="s">
+        <v>661</v>
+      </c>
+      <c r="C94" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>663</v>
+      </c>
+      <c r="B95" t="s">
+        <v>664</v>
+      </c>
+      <c r="C95" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>665</v>
+      </c>
+      <c r="B96" t="s">
+        <v>666</v>
+      </c>
+      <c r="C96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>668</v>
+      </c>
+      <c r="B97" t="s">
+        <v>669</v>
+      </c>
+      <c r="C97" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>671</v>
+      </c>
+      <c r="B98" t="s">
+        <v>672</v>
+      </c>
+      <c r="C98" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>674</v>
+      </c>
+      <c r="B99" t="s">
+        <v>675</v>
+      </c>
+      <c r="C99" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>677</v>
+      </c>
+      <c r="B100" t="s">
+        <v>678</v>
+      </c>
+      <c r="C100" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>680</v>
+      </c>
+      <c r="B101" t="s">
+        <v>681</v>
+      </c>
+      <c r="C101" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>683</v>
+      </c>
+      <c r="B102" t="s">
+        <v>684</v>
+      </c>
+      <c r="C102" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>687</v>
+      </c>
+      <c r="B104" t="s">
+        <v>688</v>
+      </c>
+      <c r="C104" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>690</v>
+      </c>
+      <c r="B105" t="s">
+        <v>691</v>
+      </c>
+      <c r="C105" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>693</v>
+      </c>
+      <c r="B106" t="s">
+        <v>694</v>
+      </c>
+      <c r="C106" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>696</v>
+      </c>
+      <c r="B107" t="s">
+        <v>697</v>
+      </c>
+      <c r="C107" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>699</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>